--- a/SuppXLS/Scen_SYS_Demands_LED_30.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED_30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143AE181-66D9-45E2-BF73-E61977AA77EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AC6EBA-5D8F-4D01-B74E-182048A8B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1450" yWindow="830" windowWidth="14400" windowHeight="7360" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -8878,8 +8878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AQ48"/>
   <sheetViews>
-    <sheetView topLeftCell="G22" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30:K36"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9837,10 +9837,11 @@
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
       <c r="K28" s="32">
-        <v>40.299999999999997</v>
+        <f>(H28*20/32+L28*12/32)</f>
+        <v>11.018235000000001</v>
       </c>
       <c r="L28" s="30">
-        <v>40.299999999999997</v>
+        <v>20</v>
       </c>
       <c r="M28" s="34">
         <v>0</v>
@@ -10645,7 +10646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
   <dimension ref="D4:M216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
+    <sheetView topLeftCell="B190" workbookViewId="0">
       <selection activeCell="H112" sqref="H112:I216"/>
     </sheetView>
   </sheetViews>

--- a/SuppXLS/Scen_SYS_Demands_LED_30.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED_30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AC6EBA-5D8F-4D01-B74E-182048A8B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4537B4-F9C9-404E-AF33-BCB2806791CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>

--- a/SuppXLS/Scen_SYS_Demands_LED_30.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED_30.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4537B4-F9C9-404E-AF33-BCB2806791CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACEB2C9-EC06-43F0-8FC4-3EED186CB3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23856" yWindow="4116" windowWidth="14400" windowHeight="7356" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
